--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Duurloop training</t>
   </si>
   <si>
-    <t>A, B, C, D</t>
-  </si>
-  <si>
     <t>Voeding en conditie</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve">SportoriÃ«ntatie en sportkeuze (SOK) </t>
-  </si>
-  <si>
-    <t>A, B, C, D, E</t>
   </si>
   <si>
     <t>SportoriÃ«ntatie en sportkeuze (SOK) kan alleen afgesloten worden als er voldoende uren zijn geparticipeerd. Bij onvoldoende participatie kan geen eindbeoordeling worden gegeven. In bepaalde gevallen kan een onderdeel in de vorm van een vervangende opdracht worden herkanst. Als er aan alle verplichtingen is voldaan, wordt een V(oldaan) op de eindlijst vermeld.</t>
@@ -1298,7 +1292,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1306,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
@@ -1321,9 +1315,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1338,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
@@ -1353,9 +1345,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1370,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
@@ -1385,9 +1375,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1403,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
@@ -1418,9 +1406,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1428,7 +1414,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2180,7 +2166,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2294,7 +2280,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2449,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -2464,9 +2450,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2475,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -2490,9 +2474,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2501,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -2516,9 +2498,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2527,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
@@ -2542,9 +2522,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -3062,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3176,7 +3154,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3536,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3553,9 +3531,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3564,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3581,9 +3557,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3691,7 +3665,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4044,7 +4018,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4999,7 +4973,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5815,7 +5789,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6631,7 +6605,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7366,9 +7340,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7383,7 +7355,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
@@ -7398,9 +7370,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7415,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
@@ -7430,9 +7400,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7469,7 +7437,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8335,7 +8303,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8490,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8507,9 +8475,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8518,7 +8484,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8535,9 +8501,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8645,7 +8609,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9203,7 +9167,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -263,7 +263,7 @@
     <t>Spel</t>
   </si>
   <si>
-    <t xml:space="preserve">SportoriÃ«ntatie en sportkeuze (SOK) </t>
+    <t xml:space="preserve">Sportoriëntatie en sportkeuze (SOK) </t>
   </si>
   <si>
     <t>SportoriÃ«ntatie en sportkeuze (SOK) kan alleen afgesloten worden als er voldoende uren zijn geparticipeerd. Bij onvoldoende participatie kan geen eindbeoordeling worden gegeven. In bepaalde gevallen kan een onderdeel in de vorm van een vervangende opdracht worden herkanst. Als er aan alle verplichtingen is voldaan, wordt een V(oldaan) op de eindlijst vermeld.</t>
@@ -1294,7 +1294,9 @@
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>322</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1324,7 +1326,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>323</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1354,7 +1358,9 @@
       <c r="B8" s="2">
         <v>94</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>324</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1385,7 +1391,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>325</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1414,7 +1422,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1486,7 +1494,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>232</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1506,9 +1516,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1700,7 +1708,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>233</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1905,7 +1915,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>234</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2280,7 +2292,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2352,7 +2364,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>235</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2429,7 +2443,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>326</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2453,7 +2469,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>327</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2477,7 +2495,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>328</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2501,7 +2521,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>329</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2572,7 +2594,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>236</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2585,9 +2609,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2779,7 +2801,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>237</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3154,7 +3178,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3226,7 +3250,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>238</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3438,7 +3464,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>239</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3508,7 +3536,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>330</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3534,7 +3564,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>331</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3651,7 +3683,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>240</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4018,7 +4052,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4973,7 +5007,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5789,7 +5823,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6605,7 +6639,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7319,7 +7353,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>317</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7349,7 +7385,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>318</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>3</v>
@@ -7379,7 +7417,9 @@
       <c r="B8" s="2">
         <v>92</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>319</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>4</v>
@@ -7437,7 +7477,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7509,7 +7549,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>228</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7529,9 +7571,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7723,7 +7763,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>229</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8303,7 +8345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8375,7 +8417,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>230</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8452,7 +8496,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>320</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8478,7 +8524,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>321</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8595,7 +8643,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>231</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9167,7 +9217,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,19 +252,49 @@
     <t>LO</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Opbouw duurloop vijverloop</t>
+  </si>
+  <si>
+    <t>LO1/ K7</t>
+  </si>
+  <si>
+    <t>Spel</t>
+  </si>
+  <si>
+    <t>LO1/ K4</t>
+  </si>
+  <si>
+    <t>Turnen: springen, zwaaien, draaien, rollen en/of balanceren.</t>
+  </si>
+  <si>
+    <t>LO1/ K5</t>
+  </si>
+  <si>
+    <t>Sport Oriëntatie Keuze (SOK)</t>
+  </si>
+  <si>
+    <t>LO1/ K9</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Duurloop training</t>
   </si>
   <si>
+    <t>A, B, C, D</t>
+  </si>
+  <si>
     <t>Voeding en conditie</t>
   </si>
   <si>
-    <t>Spel</t>
+    <t xml:space="preserve">Sportoriëntatie en sportkeuze (SOK) </t>
   </si>
   <si>
-    <t xml:space="preserve">Sportoriëntatie en sportkeuze (SOK) </t>
+    <t>A, B, C, D, E</t>
   </si>
   <si>
     <t>SportoriÃ«ntatie en sportkeuze (SOK) kan alleen afgesloten worden als er voldoende uren zijn geparticipeerd. Bij onvoldoende participatie kan geen eindbeoordeling worden gegeven. In bepaalde gevallen kan een onderdeel in de vorm van een vervangende opdracht worden herkanst. Als er aan alle verplichtingen is voldaan, wordt een V(oldaan) op de eindlijst vermeld.</t>
@@ -1204,12 +1235,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1231,25 +1262,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>LO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1291,31 +1318,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2">
-        <v>322</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
       <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1323,31 +1344,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>323</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1355,31 +1370,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2">
-        <v>324</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
       <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1389,30 +1398,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>325</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
       <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1422,7 +1427,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1489,17 +1494,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>232</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1514,7 +1517,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1531,7 +1534,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>LO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1708,12 +1711,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>233</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1738,7 +1739,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>LO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1915,12 +1916,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>234</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -1994,44 +1993,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2095,7 +2056,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2126,7 +2087,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>LO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>LO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2178,84 +2139,102 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>322</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>323</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="32"/>
+      <c r="P7" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>95</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D8" s="2">
+        <v>324</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="32"/>
+      <c r="P8" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -2263,28 +2242,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>325</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2292,7 +2277,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2359,17 +2344,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2384,7 +2369,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2401,7 +2386,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>LO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>LO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2443,106 +2428,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>326</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>327</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>328</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>329</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2595,11 +2564,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2624,7 +2593,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>LO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>LO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2802,11 +2771,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2939,6 +2908,900 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>LO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>95</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>235</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>LO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>326</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>327</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>328</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>329</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>236</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>LO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>237</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3064,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3178,7 +4041,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3544,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3561,7 +4424,9 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32"/>
+      <c r="P30" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3572,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3589,7 +4454,9 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32"/>
+      <c r="P31" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3699,7 +4566,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4052,7 +4919,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5007,7 +5874,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5823,7 +6690,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6447,12 +7314,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6474,6 +7341,903 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>LO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>226</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>LO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>313</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>314</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>315</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>316</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>227</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>LO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6639,7 +8403,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7219,886 +8983,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>LO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>317</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>318</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>3</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>92</v>
-      </c>
-      <c r="D8" s="2">
-        <v>319</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>4</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>228</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>LO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>229</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>LO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8148,7 +9032,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8179,7 +9063,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>LO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>LO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8231,84 +9115,102 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="2">
+        <v>317</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>318</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
+      <c r="G7" s="27">
+        <v>3</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="32"/>
+      <c r="P7" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>93</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D8" s="2">
+        <v>319</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
+      <c r="G8" s="27">
+        <v>4</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="32"/>
+      <c r="P8" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8316,7 +9218,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8345,7 +9247,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8412,17 +9314,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8437,7 +9339,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8454,7 +9356,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>LO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>LO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8496,58 +9398,46 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>320</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>321</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
@@ -8644,11 +9534,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8658,9 +9548,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8675,7 +9563,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>LO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>LO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8855,7 +9743,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9025,12 +9913,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9052,21 +9940,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>LO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9108,7 +10000,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9134,7 +10028,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9160,7 +10056,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>93</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9188,7 +10086,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9217,7 +10115,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9284,15 +10182,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>230</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9307,7 +10207,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9324,7 +10224,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>LO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9366,48 +10266,64 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>320</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>321</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -9501,10 +10417,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>231</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9514,7 +10432,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9529,7 +10449,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>LO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9709,7 +10629,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  LO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9783,6 +10703,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2230,7 +2230,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3328,7 +3328,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4485,7 +4485,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5592,7 +5592,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6667,7 +6667,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7763,7 +7763,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8859,7 +8859,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9939,7 +9939,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808831019</v>
+        <v>44341.376215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11043,7 +11043,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2723,51 +2723,67 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>705</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>706</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>1</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
@@ -3322,7 +3338,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4582,7 +4598,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4793,99 +4809,131 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>696</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>697</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>698</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>699</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -5657,7 +5705,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6644,27 +6692,33 @@
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>702</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -6674,27 +6728,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>703</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
+      <c r="G7" s="23">
+        <v>3</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="28"/>
+      <c r="P7" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -6704,27 +6764,33 @@
       <c r="B8" s="2">
         <v>197</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>704</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
+      <c r="G8" s="23">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6764,7 +6830,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7860,7 +7926,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8071,51 +8137,67 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>700</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>701</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
@@ -8938,7 +9020,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9914,27 +9996,33 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>711</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -9944,27 +10032,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>712</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="28"/>
+      <c r="P7" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -9974,27 +10068,33 @@
       <c r="B8" s="2">
         <v>198</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>713</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -10005,27 +10105,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>714</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="28"/>
+      <c r="P9" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
@@ -10034,7 +10140,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11138,7 +11244,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382210648</v>
+        <v>44342.629444444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11349,99 +11455,123 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>707</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="28"/>
+      <c r="P18" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>708</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="28"/>
+      <c r="P19" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>709</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>710</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="28"/>
+      <c r="P21" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/LO PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Opbouw duurloop vijverloop</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>LO1/ K7</t>
@@ -2169,7 +2172,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2895,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -2908,10 +2911,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -2983,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -2996,10 +2999,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3071,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -3084,10 +3087,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3159,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -3172,10 +3175,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3574,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3589,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3664,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3679,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -4449,7 +4452,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4803,7 +4806,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5830,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5845,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -5920,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -5935,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6349,7 +6352,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -7234,7 +7237,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7619,10 +7622,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7694,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7707,10 +7710,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7782,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7795,10 +7798,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7870,7 +7873,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -7883,10 +7886,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9496,7 +9499,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9881,10 +9884,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -9956,7 +9959,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -9969,10 +9972,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10044,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10057,10 +10060,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10132,7 +10135,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10145,10 +10148,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -11402,7 +11405,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>702</v>
@@ -11412,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -11425,10 +11428,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11506,7 +11509,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -11519,10 +11522,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11600,7 +11603,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
@@ -11613,10 +11616,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11774,7 +11777,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13656,7 +13659,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>317</v>
@@ -13666,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -13679,10 +13682,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13760,7 +13763,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -13773,10 +13776,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -13854,7 +13857,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
@@ -13867,10 +13870,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14028,7 +14031,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14400,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14413,10 +14416,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14488,7 +14491,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14501,10 +14504,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14945,7 +14948,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15924,7 +15927,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16278,7 +16281,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16650,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16665,10 +16668,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16740,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16755,10 +16758,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17199,7 +17202,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -18178,7 +18181,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>711</v>
@@ -18188,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -18201,10 +18204,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -18282,7 +18285,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -18295,10 +18298,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -18376,7 +18379,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
@@ -18389,10 +18392,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -18471,7 +18474,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
@@ -18484,10 +18487,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18556,7 +18559,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20440,7 +20443,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>322</v>
@@ -20450,7 +20453,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -20463,10 +20466,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -20544,7 +20547,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -20557,10 +20560,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -20638,7 +20641,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
@@ -20651,10 +20654,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -20733,7 +20736,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
@@ -20746,10 +20749,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -20818,7 +20821,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540983796</v>
+        <v>44378.451215278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -21190,7 +21193,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -21203,10 +21206,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21278,7 +21281,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -21291,10 +21294,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21366,7 +21369,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -21379,10 +21382,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21454,7 +21457,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -21467,10 +21470,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
